--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D60B3F-48CC-4F29-94AC-9946E886087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CFF8A-5D77-4BE3-A81A-76B51E60D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
     <t>Correct Regression Prediction</t>
   </si>
   <si>
-    <t>Correct Clasiification Prediction</t>
+    <t>Correct Classification Prediction</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>2</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>2</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
         <v>2</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3664,10 +3664,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="n">
         <v>2</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174" t="n">
         <v>2</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
         <v>2</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" t="n">
         <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>2</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" t="n">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198" t="n">
         <v>2</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199" t="n">
         <v>2</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
         <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>2</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>2</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
         <v>2</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
         <v>2</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
         <v>3</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
         <v>3</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
         <v>3</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="n">
         <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D181" t="n">
         <v>3</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D188" t="n">
         <v>2</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" t="n">
         <v>2</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201" t="n">
         <v>3</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>4</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
         <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
         <v>4</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
         <v>2</v>
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
         <v>4</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
         <v>4</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
         <v>3</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" t="n">
         <v>4</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" t="n">
         <v>2</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
         <v>3</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
         <v>2</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" t="n">
         <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D159" t="n">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
         <v>3</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D162" t="n">
         <v>3</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D164" t="n">
         <v>4</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E177" t="n">
         <v>3</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" t="n">
         <v>3</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D182" t="n">
         <v>3</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D183" t="n">
         <v>4</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
         <v>2</v>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187" t="n">
         <v>2</v>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188" t="n">
         <v>2</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190" t="n">
         <v>2</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
         <v>2</v>
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" t="n">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" t="n">
         <v>3</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E201" t="n">
         <v>3</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" t="n">
         <v>3</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
         <v>5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
         <v>5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
         <v>5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>4</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
         <v>5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
         <v>5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
         <v>3</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
         <v>5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
         <v>5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
         <v>5</v>
       </c>
-      <c r="D58" t="n">
-        <v>4</v>
-      </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>3</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
         <v>5</v>
       </c>
-      <c r="D97" t="n">
-        <v>4</v>
-      </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
         <v>5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
         <v>3</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
         <v>5</v>
       </c>
-      <c r="D102" t="n">
-        <v>4</v>
-      </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" t="n">
         <v>5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
         <v>4</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
+        <v>6</v>
+      </c>
+      <c r="D120" t="n">
         <v>5</v>
       </c>
-      <c r="D120" t="n">
-        <v>4</v>
-      </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
         <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
+        <v>6</v>
+      </c>
+      <c r="D133" t="n">
         <v>5</v>
       </c>
-      <c r="D133" t="n">
-        <v>4</v>
-      </c>
       <c r="E133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
         <v>4</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
+        <v>6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4</v>
+      </c>
+      <c r="E141" t="n">
         <v>5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
         <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
         <v>3</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
         <v>5</v>
       </c>
-      <c r="D152" t="n">
-        <v>4</v>
-      </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
         <v>2</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
         <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
         <v>2</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>4</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
         <v>3</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
         <v>3</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
         <v>5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>4</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
+        <v>6</v>
+      </c>
+      <c r="D171" t="n">
         <v>5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>4</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
         <v>4</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
+        <v>6</v>
+      </c>
+      <c r="D175" t="n">
         <v>5</v>
       </c>
-      <c r="D175" t="n">
-        <v>4</v>
-      </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
+        <v>6</v>
+      </c>
+      <c r="D176" t="n">
         <v>5</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
         <v>5</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
         <v>4</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179" t="n">
         <v>3</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
         <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3</v>
+      </c>
+      <c r="E184" t="n">
         <v>5</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
         <v>2</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187" t="n">
         <v>2</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
         <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189" t="n">
         <v>3</v>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
         <v>2</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
         <v>3</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4</v>
+      </c>
+      <c r="E194" t="n">
         <v>5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3</v>
+      </c>
+      <c r="E195" t="n">
         <v>5</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E197" t="n">
         <v>3</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
         <v>5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4</v>
       </c>
       <c r="E198" t="n">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
+        <v>6</v>
+      </c>
+      <c r="D199" t="n">
         <v>5</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4</v>
       </c>
       <c r="E199" t="n">
         <v>3</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
+        <v>6</v>
+      </c>
+      <c r="D200" t="n">
         <v>5</v>
       </c>
-      <c r="D200" t="n">
-        <v>4</v>
-      </c>
       <c r="E200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
+        <v>6</v>
+      </c>
+      <c r="D201" t="n">
         <v>5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4</v>
       </c>
       <c r="E201" t="n">
         <v>3</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
+        <v>6</v>
+      </c>
+      <c r="D202" t="n">
         <v>5</v>
       </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
       <c r="E202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
         <v>4</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
         <v>2</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
         <v>4</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
         <v>6</v>
       </c>
-      <c r="D27" t="n">
-        <v>5</v>
-      </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
         <v>6</v>
       </c>
-      <c r="D30" t="n">
-        <v>5</v>
-      </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>3</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" t="n">
         <v>6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
         <v>6</v>
       </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>4</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>3</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>5</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
         <v>4</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
         <v>3</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
         <v>6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
         <v>4</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>5</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
         <v>3</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
         <v>4</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>7</v>
+      </c>
+      <c r="D97" t="n">
         <v>6</v>
       </c>
-      <c r="D97" t="n">
-        <v>5</v>
-      </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>7</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
         <v>6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>4</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
         <v>4</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
         <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
         <v>6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
         <v>3</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
         <v>4</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119" t="n">
         <v>4</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
+        <v>7</v>
+      </c>
+      <c r="D120" t="n">
         <v>6</v>
       </c>
-      <c r="D120" t="n">
-        <v>5</v>
-      </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" t="n">
         <v>3</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="n">
         <v>4</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" t="n">
         <v>4</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
         <v>3</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
         <v>6</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D133" t="n">
         <v>5</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D135" t="n">
         <v>4</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
         <v>3</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
+        <v>7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="n">
         <v>6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
         <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
         <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
         <v>4</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
         <v>3</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D151" t="n">
         <v>5</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D157" t="n">
         <v>4</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
         <v>4</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
+        <v>7</v>
+      </c>
+      <c r="D164" t="n">
         <v>6</v>
       </c>
-      <c r="D164" t="n">
-        <v>5</v>
-      </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
+        <v>7</v>
+      </c>
+      <c r="D171" t="n">
         <v>6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D173" t="n">
         <v>4</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
+        <v>7</v>
+      </c>
+      <c r="D175" t="n">
         <v>6</v>
       </c>
-      <c r="D175" t="n">
-        <v>5</v>
-      </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
+        <v>7</v>
+      </c>
+      <c r="D176" t="n">
         <v>6</v>
       </c>
-      <c r="D176" t="n">
-        <v>5</v>
-      </c>
       <c r="E176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D177" t="n">
         <v>5</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D181" t="n">
         <v>4</v>
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D184" t="n">
         <v>3</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186" t="n">
         <v>3</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D187" t="n">
         <v>4</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D188" t="n">
         <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D189" t="n">
         <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E190" t="n">
         <v>2</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D193" t="n">
         <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
+        <v>7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5</v>
+      </c>
+      <c r="E194" t="n">
         <v>6</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4</v>
-      </c>
-      <c r="E194" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196" t="n">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D197" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E197" t="n">
         <v>3</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
         <v>5</v>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D199" t="n">
         <v>5</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
+        <v>7</v>
+      </c>
+      <c r="D200" t="n">
         <v>6</v>
       </c>
-      <c r="D200" t="n">
-        <v>5</v>
-      </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
+        <v>7</v>
+      </c>
+      <c r="D201" t="n">
         <v>6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>5</v>
       </c>
       <c r="E201" t="n">
         <v>3</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
+        <v>7</v>
+      </c>
+      <c r="D202" t="n">
         <v>6</v>
-      </c>
-      <c r="D202" t="n">
-        <v>5</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D203" t="n">
         <v>4</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
+        <v>7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5</v>
+      </c>
+      <c r="E205" t="n">
         <v>6</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>3</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" t="n">
         <v>7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
         <v>5</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" t="n">
         <v>4</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
         <v>4</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
         <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>5</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
         <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
         <v>3</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
         <v>3</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
         <v>7</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
         <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
         <v>3</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" t="n">
         <v>4</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
         <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
         <v>6</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
         <v>7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
         <v>4</v>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="n">
         <v>7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
         <v>3</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" t="n">
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E137" t="n">
         <v>3</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
         <v>6</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" t="n">
         <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" t="n">
         <v>3</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" t="n">
         <v>3</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" t="n">
         <v>3</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" t="n">
         <v>4</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" t="n">
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E158" t="n">
         <v>3</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159" t="n">
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161" t="n">
         <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
+        <v>8</v>
+      </c>
+      <c r="D164" t="n">
         <v>7</v>
       </c>
-      <c r="D164" t="n">
-        <v>6</v>
-      </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" t="n">
         <v>4</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" t="n">
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" t="n">
         <v>4</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" t="n">
         <v>6</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" t="n">
         <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D175" t="n">
         <v>6</v>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
+        <v>8</v>
+      </c>
+      <c r="D176" t="n">
         <v>7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" t="n">
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178" t="n">
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183" t="n">
         <v>5</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184" t="n">
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187" t="n">
         <v>4</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188" t="n">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190" t="n">
         <v>4</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D192" t="n">
         <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
+        <v>8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6</v>
+      </c>
+      <c r="E194" t="n">
         <v>7</v>
-      </c>
-      <c r="D194" t="n">
-        <v>5</v>
-      </c>
-      <c r="E194" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E197" t="n">
         <v>3</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199" t="n">
         <v>5</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
+        <v>8</v>
+      </c>
+      <c r="D200" t="n">
         <v>7</v>
-      </c>
-      <c r="D200" t="n">
-        <v>6</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
+        <v>8</v>
+      </c>
+      <c r="D201" t="n">
         <v>7</v>
       </c>
-      <c r="D201" t="n">
-        <v>6</v>
-      </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D202" t="n">
         <v>6</v>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E203" t="n">
         <v>3</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" t="n">
         <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205" t="n">
         <v>5</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>7</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>3</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
         <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>4</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
         <v>4</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
         <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
         <v>4</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
         <v>6</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
         <v>4</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
         <v>8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
         <v>3</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
         <v>4</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
         <v>4</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
+        <v>9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" t="n">
         <v>8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
+        <v>9</v>
+      </c>
+      <c r="D131" t="n">
         <v>8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>7</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
         <v>5</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E139" t="n">
         <v>6</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="n">
         <v>6</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="n">
         <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="n">
         <v>6</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
         <v>4</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
         <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="n">
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="n">
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="n">
         <v>3</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="n">
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="n">
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
         <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
         <v>3</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="n">
         <v>6</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="n">
         <v>6</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
         <v>6</v>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
+        <v>9</v>
+      </c>
+      <c r="D176" t="n">
         <v>8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>7</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="n">
         <v>5</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="n">
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
         <v>5</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
         <v>4</v>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
         <v>4</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
+        <v>9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>7</v>
+      </c>
+      <c r="E194" t="n">
         <v>8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
         <v>7</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
+        <v>9</v>
+      </c>
+      <c r="D201" t="n">
         <v>8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>7</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="n">
         <v>6</v>
       </c>
       <c r="E202" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="n">
         <v>5</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
         <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E205" t="n">
         <v>6</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
         <v>5</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
         <v>4</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
         <v>5</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
         <v>5</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
         <v>5</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
         <v>6</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
         <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
         <v>4</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
         <v>6</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
         <v>6</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
         <v>4</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="n">
         <v>4</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
         <v>5</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
         <v>5</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
         <v>3</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="n">
         <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="n">
         <v>5</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="n">
         <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="n">
         <v>7</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="n">
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="n">
         <v>6</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="n">
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="n">
         <v>6</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="n">
         <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="n">
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="n">
         <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="n">
         <v>5</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E157" t="n">
         <v>6</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="n">
         <v>6</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="n">
         <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="n">
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="n">
         <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="n">
         <v>5</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="n">
         <v>5</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="n">
         <v>6</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="n">
         <v>8</v>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="n">
         <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="n">
         <v>7</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="n">
         <v>4</v>
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E187" t="n">
         <v>3</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="n">
         <v>4</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="n">
         <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="n">
         <v>7</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="n">
         <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="n">
         <v>9</v>
       </c>
       <c r="E197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="n">
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="n">
         <v>6</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
         <v>8</v>
       </c>
       <c r="E201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="n">
         <v>5</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="n">
         <v>6</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>6</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
         <v>7</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
         <v>7</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
         <v>6</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>6</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
         <v>6</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
         <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>5</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
         <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
         <v>4</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
         <v>7</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
         <v>6</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
         <v>4</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
         <v>5</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
         <v>5</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
         <v>2</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
         <v>5</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
         <v>5</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
         <v>8</v>
       </c>
       <c r="E141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
         <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
         <v>6</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
         <v>5</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
         <v>5</v>
       </c>
       <c r="E159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D164" t="n">
         <v>8</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
         <v>4</v>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D170" t="n">
         <v>5</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E171" t="n">
         <v>3</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
         <v>6</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
         <v>6</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" t="n">
         <v>6</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E184" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D187" t="n">
         <v>5</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E190" t="n">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
         <v>2</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E195" t="n">
         <v>8</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
         <v>9</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
         <v>8</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D201" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
         <v>5</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D204" t="n">
         <v>4</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D205" t="n">
         <v>6</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>5</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
         <v>6</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
         <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
         <v>9</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
         <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
         <v>5</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>7</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>5</v>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
         <v>5</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
         <v>7</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
         <v>5</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
         <v>6</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" t="n">
         <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" t="n">
         <v>8</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" t="n">
         <v>6</v>
       </c>
       <c r="E144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
         <v>7</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E146" t="n">
         <v>6</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" t="n">
         <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" t="n">
         <v>6</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E150" t="n">
         <v>6</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E152" t="n">
         <v>6</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
         <v>5</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" t="n">
         <v>6</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" t="n">
         <v>5</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" t="n">
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160" t="n">
         <v>9</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" t="n">
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" t="n">
         <v>5</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" t="n">
         <v>4</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" t="n">
         <v>4</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" t="n">
         <v>8</v>
       </c>
       <c r="E168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" t="n">
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" t="n">
         <v>5</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" t="n">
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" t="n">
         <v>6</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" t="n">
         <v>8</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" t="n">
         <v>9</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" t="n">
         <v>8</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" t="n">
         <v>6</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D181" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" t="n">
         <v>8</v>
       </c>
       <c r="E182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E186" t="n">
         <v>6</v>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" t="n">
         <v>5</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E190" t="n">
         <v>3</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
         <v>5</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" t="n">
         <v>7</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" t="n">
         <v>7</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D198" t="n">
         <v>8</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D199" t="n">
         <v>7</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" t="n">
         <v>9</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" t="n">
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D205" t="n">
         <v>6</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
         <v>8</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
         <v>7</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
         <v>6</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
         <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>6</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
         <v>6</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
         <v>9</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" t="n">
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" t="n">
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
         <v>4</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
         <v>7</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
         <v>5</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" t="n">
         <v>7</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" t="n">
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" t="n">
         <v>9</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D122" t="n">
         <v>6</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" t="n">
         <v>9</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" t="n">
         <v>6</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
         <v>7</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D133" t="n">
         <v>7</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" t="n">
         <v>8</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D141" t="n">
         <v>9</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D144" t="n">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D146" t="n">
         <v>6</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D147" t="n">
         <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149" t="n">
         <v>6</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D150" t="n">
         <v>5</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D153" t="n">
         <v>5</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D154" t="n">
         <v>6</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D155" t="n">
         <v>5</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D156" t="n">
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D157" t="n">
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D159" t="n">
         <v>6</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D161" t="n">
         <v>4</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163" t="n">
         <v>6</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D164" t="n">
         <v>9</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D165" t="n">
         <v>7</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D166" t="n">
         <v>4</v>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D167" t="n">
         <v>4</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D168" t="n">
         <v>8</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D170" t="n">
         <v>5</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D172" t="n">
         <v>6</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D175" t="n">
         <v>8</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D176" t="n">
         <v>9</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" t="n">
         <v>8</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D179" t="n">
         <v>6</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183" t="n">
         <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D185" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D186" t="n">
         <v>8</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D187" t="n">
         <v>6</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D188" t="n">
         <v>5</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D192" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D193" t="n">
         <v>8</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D194" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E195" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D196" t="n">
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D197" t="n">
         <v>10</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D198" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D199" t="n">
         <v>7</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D200" t="n">
         <v>9</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D201" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
         <v>8</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D204" t="n">
         <v>5</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D205" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
         <v>6</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>7</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>8</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>7</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
         <v>9</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
         <v>7</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
         <v>9</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
         <v>6</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
         <v>7</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="n">
         <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E113" t="n">
         <v>6</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="n">
         <v>8</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" t="n">
         <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
         <v>6</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" t="n">
         <v>9</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E126" t="n">
         <v>6</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" t="n">
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" t="n">
         <v>4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134" t="n">
         <v>6</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136" t="n">
         <v>6</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" t="n">
         <v>9</v>
       </c>
       <c r="E141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D143" t="n">
         <v>7</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" t="n">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" t="n">
         <v>6</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" t="n">
         <v>4</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" t="n">
         <v>6</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D150" t="n">
         <v>5</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D151" t="n">
         <v>9</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D154" t="n">
         <v>6</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D155" t="n">
         <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E157" t="n">
         <v>9</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160" t="n">
         <v>10</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D161" t="n">
         <v>4</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D163" t="n">
         <v>7</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D164" t="n">
         <v>9</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D166" t="n">
         <v>4</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D168" t="n">
         <v>8</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D170" t="n">
         <v>5</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D171" t="n">
         <v>10</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D172" t="n">
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" t="n">
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D176" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D178" t="n">
         <v>10</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D179" t="n">
         <v>6</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D180" t="n">
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D181" t="n">
         <v>9</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D182" t="n">
         <v>9</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
         <v>8</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D184" t="n">
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D186" t="n">
         <v>8</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187" t="n">
         <v>6</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
         <v>8</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D191" t="n">
         <v>4</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D193" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E193" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D195" t="n">
         <v>8</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D198" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D200" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="n">
         <v>6</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D202" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D204" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E205" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
         <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
         <v>9</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
         <v>6</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
         <v>6</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
         <v>8</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
         <v>8</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
         <v>11</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
         <v>6</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
+        <v>6</v>
+      </c>
+      <c r="E129" t="n">
         <v>5</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
         <v>9</v>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
         <v>11</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
+        <v>11</v>
+      </c>
+      <c r="E139" t="n">
         <v>10</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
         <v>9</v>
       </c>
       <c r="E141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
         <v>9</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
         <v>11</v>
       </c>
       <c r="E148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E153" t="n">
         <v>6</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
         <v>6</v>
       </c>
       <c r="E157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
         <v>7</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D162" t="n">
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D163" t="n">
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D165" t="n">
         <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
         <v>4</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D170" t="n">
+        <v>6</v>
+      </c>
+      <c r="E170" t="n">
         <v>5</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
         <v>10</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D172" t="n">
         <v>6</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D175" t="n">
         <v>9</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="n">
         <v>6</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
         <v>6</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D180" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D181" t="n">
         <v>9</v>
       </c>
       <c r="E181" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D182" t="n">
         <v>9</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E184" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
         <v>8</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D187" t="n">
         <v>6</v>
       </c>
       <c r="E187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
       </c>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D191" t="n">
         <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194" t="n">
         <v>10</v>
       </c>
       <c r="E194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195" t="n">
         <v>8</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D201" t="n">
         <v>11</v>
       </c>
       <c r="E201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D202" t="n">
         <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203" t="n">
         <v>8</v>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E204" t="n">
         <v>8</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205" t="n">
         <v>8</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>8</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
         <v>9</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="n">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
         <v>6</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
         <v>6</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
         <v>6</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
         <v>6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
         <v>11</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
         <v>11</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
         <v>9</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D103" t="n">
         <v>11</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
+        <v>12</v>
+      </c>
+      <c r="E120" t="n">
         <v>11</v>
-      </c>
-      <c r="E120" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
         <v>4</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
         <v>8</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
         <v>6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="n">
         <v>4</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
         <v>9</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
         <v>9</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" t="n">
+        <v>12</v>
+      </c>
+      <c r="E139" t="n">
         <v>11</v>
-      </c>
-      <c r="E139" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
         <v>9</v>
       </c>
       <c r="E141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143" t="n">
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
         <v>9</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146" t="n">
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147" t="n">
         <v>5</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D150" t="n">
         <v>6</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D151" t="n">
         <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
         <v>7</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155" t="n">
         <v>6</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159" t="n">
         <v>7</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" t="n">
         <v>11</v>
       </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" t="n">
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D163" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D165" t="n">
         <v>8</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" t="n">
+        <v>7</v>
+      </c>
+      <c r="E170" t="n">
         <v>6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
         <v>9</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
         <v>11</v>
       </c>
       <c r="E176" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D182" t="n">
         <v>9</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184" t="n">
         <v>8</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D185" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D187" t="n">
+        <v>7</v>
+      </c>
+      <c r="E187" t="n">
         <v>6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
       </c>
       <c r="E189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D190" t="n">
         <v>9</v>
       </c>
       <c r="E190" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D191" t="n">
         <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D192" t="n">
         <v>8</v>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D194" t="n">
         <v>10</v>
       </c>
       <c r="E194" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D197" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D198" t="n">
         <v>11</v>
       </c>
       <c r="E198" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D199" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D201" t="n">
         <v>11</v>
       </c>
       <c r="E201" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D202" t="n">
         <v>9</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D203" t="n">
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205" t="n">
         <v>8</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>9</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>9</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
         <v>6</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
         <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
         <v>7</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
         <v>11</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
         <v>11</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
+        <v>12</v>
+      </c>
+      <c r="E84" t="n">
         <v>11</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
         <v>6</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" t="n">
         <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
         <v>11</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
         <v>8</v>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
         <v>8</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" t="n">
         <v>9</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" t="n">
+        <v>13</v>
+      </c>
+      <c r="E120" t="n">
         <v>12</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" t="n">
         <v>8</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" t="n">
         <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E129" t="n">
         <v>6</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
         <v>8</v>
       </c>
       <c r="E134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E139" t="n">
         <v>11</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E143" t="n">
         <v>11</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="n">
         <v>7</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D157" t="n">
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158" t="n">
         <v>9</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" t="n">
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D160" t="n">
         <v>11</v>
       </c>
       <c r="E160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D163" t="n">
         <v>8</v>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E164" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D165" t="n">
         <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D167" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D171" t="n">
         <v>11</v>
       </c>
       <c r="E171" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D172" t="n">
         <v>7</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D177" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D178" t="n">
         <v>12</v>
       </c>
       <c r="E178" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D179" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D180" t="n">
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D184" t="n">
         <v>8</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D185" t="n">
         <v>9</v>
       </c>
       <c r="E185" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D186" t="n">
         <v>9</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187" t="n">
         <v>7</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
       </c>
       <c r="E188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
       </c>
       <c r="E189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D190" t="n">
         <v>9</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D191" t="n">
         <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D192" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E192" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D193" t="n">
         <v>11</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D194" t="n">
         <v>10</v>
       </c>
       <c r="E194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D197" t="n">
         <v>13</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D199" t="n">
         <v>10</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D200" t="n">
         <v>12</v>
       </c>
       <c r="E200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201" t="n">
         <v>11</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D205" t="n">
         <v>8</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>11</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
         <v>13</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
         <v>9</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
         <v>9</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" t="n">
         <v>8</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
         <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
         <v>9</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
         <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69" t="n">
         <v>12</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
         <v>7</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
         <v>11</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>11</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
         <v>11</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
         <v>12</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
         <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" t="n">
         <v>6</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
         <v>11</v>
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
         <v>12</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
         <v>8</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" t="n">
         <v>8</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
+        <v>14</v>
+      </c>
+      <c r="E120" t="n">
         <v>13</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
         <v>11</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
         <v>11</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125" t="n">
         <v>10</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D126" t="n">
         <v>9</v>
       </c>
       <c r="E126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D127" t="n">
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D131" t="n">
         <v>13</v>
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D137" t="n">
         <v>13</v>
       </c>
       <c r="E137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139" t="n">
         <v>13</v>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D141" t="n">
         <v>10</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D142" t="n">
         <v>9</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D145" t="n">
         <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E148" t="n">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D149" t="n">
         <v>9</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D151" t="n">
         <v>11</v>
       </c>
       <c r="E151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" t="n">
         <v>8</v>
       </c>
       <c r="E153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
         <v>9</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155" t="n">
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
         <v>10</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157" t="n">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D158" t="n">
         <v>9</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" t="n">
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D160" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D162" t="n">
         <v>9</v>
       </c>
       <c r="E162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D165" t="n">
         <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D168" t="n">
         <v>11</v>
       </c>
       <c r="E168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169" t="n">
         <v>10</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D171" t="n">
         <v>11</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="n">
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D176" t="n">
         <v>12</v>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D178" t="n">
         <v>12</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="n">
         <v>12</v>
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D181" t="n">
         <v>11</v>
       </c>
       <c r="E181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D182" t="n">
         <v>10</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D183" t="n">
         <v>11</v>
       </c>
       <c r="E183" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D184" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D185" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D186" t="n">
         <v>9</v>
       </c>
       <c r="E186" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D187" t="n">
         <v>7</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
       </c>
       <c r="E188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D189" t="n">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D190" t="n">
         <v>9</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D192" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="n">
         <v>11</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E196" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D197" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D198" t="n">
         <v>12</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E200" t="n">
         <v>6</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E201" t="n">
         <v>8</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D203" t="n">
         <v>9</v>
       </c>
       <c r="E203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
         <v>9</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
         <v>9</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
         <v>9</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
         <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
         <v>6</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
         <v>11</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
         <v>11</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
         <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
         <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
         <v>7</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
         <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
         <v>11</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
         <v>12</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
         <v>11</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
         <v>11</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
         <v>13</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
         <v>11</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
         <v>11</v>
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100" t="n">
         <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
         <v>9</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
         <v>12</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
         <v>11</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" t="n">
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" t="n">
         <v>11</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" t="n">
         <v>8</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115" t="n">
         <v>11</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" t="n">
         <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
         <v>12</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="n">
         <v>11</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D131" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D135" t="n">
         <v>11</v>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136" t="n">
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D137" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" t="n">
         <v>7</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D139" t="n">
+        <v>14</v>
+      </c>
+      <c r="E139" t="n">
         <v>13</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141" t="n">
         <v>10</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142" t="n">
         <v>9</v>
       </c>
       <c r="E142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144" t="n">
         <v>10</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D145" t="n">
         <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147" t="n">
         <v>7</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148" t="n">
         <v>14</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D149" t="n">
         <v>9</v>
       </c>
       <c r="E149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150" t="n">
         <v>8</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D151" t="n">
         <v>11</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D153" t="n">
         <v>8</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D155" t="n">
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D156" t="n">
         <v>10</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D157" t="n">
         <v>7</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" t="n">
         <v>12</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D163" t="n">
         <v>9</v>
       </c>
       <c r="E163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D165" t="n">
         <v>8</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D166" t="n">
         <v>7</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
         <v>9</v>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168" t="n">
         <v>12</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D169" t="n">
         <v>10</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D170" t="n">
         <v>9</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D171" t="n">
         <v>11</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D174" t="n">
         <v>11</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D177" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D178" t="n">
         <v>12</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D179" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D180" t="n">
         <v>10</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D181" t="n">
         <v>11</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D182" t="n">
         <v>10</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E183" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D186" t="n">
         <v>9</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D187" t="n">
+        <v>8</v>
+      </c>
+      <c r="E187" t="n">
         <v>7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E189" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E193" t="n">
         <v>11</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" t="n">
         <v>11</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D195" t="n">
         <v>11</v>
       </c>
       <c r="E195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D196" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E197" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D198" t="n">
         <v>12</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D199" t="n">
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D200" t="n">
         <v>13</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E201" t="n">
         <v>8</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D202" t="n">
         <v>11</v>
       </c>
       <c r="E202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D205" t="n">
         <v>9</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
         <v>9</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
         <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
         <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
         <v>9</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
         <v>12</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
         <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
         <v>11</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="n">
         <v>11</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
         <v>9</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
         <v>7</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
         <v>6</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
         <v>9</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
         <v>12</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
         <v>12</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
         <v>11</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
         <v>11</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
         <v>12</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
         <v>11</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
         <v>12</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
         <v>9</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
         <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
         <v>11</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
         <v>9</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
         <v>11</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
         <v>8</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" t="n">
         <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="n">
         <v>12</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
         <v>11</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127" t="n">
         <v>12</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
         <v>10</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
         <v>14</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135" t="n">
         <v>11</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" t="n">
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D141" t="n">
         <v>10</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D144" t="n">
         <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E148" t="n">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149" t="n">
         <v>9</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
         <v>10</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E157" t="n">
         <v>12</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
         <v>8</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" t="n">
         <v>12</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D169" t="n">
         <v>10</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170" t="n">
         <v>9</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
       </c>
       <c r="E175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E176" t="n">
         <v>11</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
         <v>14</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="n">
         <v>12</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181" t="n">
         <v>11</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D182" t="n">
         <v>10</v>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D183" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E183" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D184" t="n">
         <v>10</v>
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E185" t="n">
         <v>11</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
       </c>
       <c r="E189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
       </c>
       <c r="E190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
         <v>6</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
         <v>11</v>
       </c>
       <c r="E192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D193" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D194" t="n">
         <v>11</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D196" t="n">
         <v>13</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D197" t="n">
         <v>14</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D198" t="n">
         <v>12</v>
       </c>
       <c r="E198" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D199" t="n">
         <v>11</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D200" t="n">
         <v>13</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
         <v>9</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>13</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
         <v>9</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
         <v>13</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
         <v>9</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
         <v>12</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
         <v>11</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
         <v>11</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
         <v>9</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" t="n">
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
         <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" t="n">
         <v>11</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
         <v>11</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
         <v>12</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
         <v>7</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
         <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
         <v>12</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
         <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="n">
         <v>15</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
         <v>12</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
         <v>8</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D92" t="n">
         <v>11</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D96" t="n">
         <v>13</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D98" t="n">
         <v>12</v>
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D99" t="n">
         <v>11</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D100" t="n">
         <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="n">
         <v>14</v>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D111" t="n">
         <v>13</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D112" t="n">
         <v>11</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D120" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D122" t="n">
         <v>11</v>
       </c>
       <c r="E122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D125" t="n">
         <v>11</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
         <v>12</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D131" t="n">
         <v>14</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D133" t="n">
         <v>8</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134" t="n">
         <v>11</v>
       </c>
       <c r="E134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D135" t="n">
         <v>11</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D136" t="n">
         <v>11</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E139" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
         <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148" t="n">
         <v>11</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" t="n">
         <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D152" t="n">
         <v>8</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D154" t="n">
         <v>10</v>
       </c>
       <c r="E154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160" t="n">
         <v>13</v>
       </c>
       <c r="E160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D162" t="n">
         <v>11</v>
       </c>
       <c r="E162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
         <v>10</v>
       </c>
       <c r="E163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D164" t="n">
         <v>15</v>
       </c>
       <c r="E164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165" t="n">
         <v>9</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167" t="n">
         <v>10</v>
       </c>
       <c r="E167" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168" t="n">
+        <v>14</v>
+      </c>
+      <c r="E168" t="n">
         <v>13</v>
-      </c>
-      <c r="E168" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D170" t="n">
         <v>9</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D171" t="n">
         <v>12</v>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D173" t="n">
         <v>10</v>
       </c>
       <c r="E173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D174" t="n">
         <v>12</v>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
       </c>
       <c r="E175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D176" t="n">
         <v>14</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D177" t="n">
         <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D178" t="n">
         <v>13</v>
       </c>
       <c r="E178" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D180" t="n">
         <v>11</v>
       </c>
       <c r="E180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D181" t="n">
         <v>12</v>
       </c>
       <c r="E181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D183" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E183" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D184" t="n">
         <v>10</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D187" t="n">
         <v>9</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
       </c>
       <c r="E189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
       </c>
       <c r="E190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D193" t="n">
         <v>14</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D194" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E194" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E195" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D196" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D198" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D199" t="n">
         <v>11</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D200" t="n">
         <v>13</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E202" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D203" t="n">
         <v>11</v>
       </c>
       <c r="E203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
         <v>8</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>13</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
         <v>13</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
         <v>9</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
         <v>15</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
         <v>11</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
         <v>11</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" t="n">
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" t="n">
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
         <v>11</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" t="n">
         <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="n">
         <v>11</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="n">
         <v>11</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" t="n">
         <v>12</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" t="n">
         <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" t="n">
         <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
         <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="n">
         <v>12</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
         <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" t="n">
         <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" t="n">
         <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
         <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" t="n">
         <v>11</v>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" t="n">
         <v>12</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" t="n">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
         <v>7</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" t="n">
+        <v>14</v>
+      </c>
+      <c r="E107" t="n">
         <v>13</v>
-      </c>
-      <c r="E107" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109" t="n">
         <v>13</v>
       </c>
       <c r="E109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" t="n">
         <v>13</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D114" t="n">
         <v>12</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" t="n">
         <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E116" t="n">
         <v>11</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" t="n">
         <v>9</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
         <v>11</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" t="n">
         <v>11</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" t="n">
         <v>12</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D130" t="n">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D131" t="n">
         <v>14</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D132" t="n">
         <v>13</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D137" t="n">
         <v>16</v>
       </c>
       <c r="E137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D138" t="n">
         <v>9</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D139" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D141" t="n">
         <v>11</v>
       </c>
       <c r="E141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D148" t="n">
         <v>16</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D150" t="n">
         <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D151" t="n">
         <v>13</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D154" t="n">
         <v>10</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D156" t="n">
         <v>12</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D159" t="n">
         <v>9</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D162" t="n">
         <v>11</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="n">
         <v>10</v>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D164" t="n">
         <v>15</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D167" t="n">
         <v>10</v>
       </c>
       <c r="E167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" t="n">
         <v>14</v>
       </c>
       <c r="E168" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D169" t="n">
         <v>11</v>
       </c>
       <c r="E169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D170" t="n">
         <v>9</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D173" t="n">
         <v>10</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D176" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D178" t="n">
         <v>13</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E179" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E180" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" t="n">
         <v>12</v>
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D183" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E183" t="n">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D191" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D192" t="n">
         <v>12</v>
       </c>
       <c r="E192" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D195" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E195" t="n">
         <v>14</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D196" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E196" t="n">
         <v>11</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E197" t="n">
         <v>8</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" t="n">
+        <v>14</v>
+      </c>
+      <c r="E198" t="n">
         <v>13</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199" t="n">
         <v>9</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E200" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
       </c>
       <c r="E201" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E202" t="n">
         <v>14</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D204" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E204" t="n">
         <v>11</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
         <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
         <v>11</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
         <v>11</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
         <v>12</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
         <v>13</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
         <v>12</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
         <v>11</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
         <v>11</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
         <v>13</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
         <v>12</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
         <v>12</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" t="n">
         <v>11</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
         <v>11</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
         <v>13</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
         <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
         <v>14</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
         <v>9</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
         <v>13</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
         <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D104" t="n">
         <v>11</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
         <v>8</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D107" t="n">
+        <v>15</v>
+      </c>
+      <c r="E107" t="n">
         <v>14</v>
-      </c>
-      <c r="E107" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D109" t="n">
         <v>13</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D111" t="n">
         <v>13</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D115" t="n">
         <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D117" t="n">
         <v>9</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D120" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D125" t="n">
         <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D126" t="n">
         <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D129" t="n">
         <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D130" t="n">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D131" t="n">
         <v>14</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D132" t="n">
         <v>13</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D133" t="n">
         <v>9</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="n">
         <v>12</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D135" t="n">
         <v>12</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D136" t="n">
         <v>12</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D137" t="n">
         <v>16</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
         <v>8</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D145" t="n">
         <v>13</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D146" t="n">
         <v>11</v>
       </c>
       <c r="E146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D147" t="n">
         <v>10</v>
       </c>
       <c r="E147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E148" t="n">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D149" t="n">
         <v>11</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D150" t="n">
         <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D151" t="n">
         <v>13</v>
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="n">
         <v>11</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D153" t="n">
         <v>11</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D154" t="n">
         <v>10</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D156" t="n">
         <v>12</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D158" t="n">
         <v>13</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D159" t="n">
         <v>9</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D160" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D161" t="n">
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D162" t="n">
         <v>11</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D163" t="n">
         <v>10</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D164" t="n">
         <v>15</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D165" t="n">
         <v>10</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D166" t="n">
         <v>9</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D167" t="n">
         <v>10</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D168" t="n">
         <v>14</v>
       </c>
       <c r="E168" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D169" t="n">
         <v>11</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="n">
         <v>11</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
       </c>
       <c r="E175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D176" t="n">
         <v>15</v>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D177" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E177" t="n">
         <v>11</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D178" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D179" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D182" t="n">
         <v>12</v>
       </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D183" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E183" t="n">
         <v>17</v>
@@ -4294,10 +4294,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D184" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E184" t="n">
         <v>15</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D188" t="n">
         <v>8</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D191" t="n">
         <v>8</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D192" t="n">
         <v>12</v>
       </c>
       <c r="E192" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D193" t="n">
         <v>15</v>
       </c>
       <c r="E193" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D195" t="n">
         <v>14</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D196" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E196" t="n">
         <v>11</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D197" t="n">
         <v>16</v>
       </c>
       <c r="E197" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D198" t="n">
+        <v>15</v>
+      </c>
+      <c r="E198" t="n">
         <v>14</v>
-      </c>
-      <c r="E198" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D199" t="n">
         <v>12</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D200" t="n">
         <v>14</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
       </c>
       <c r="E201" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D202" t="n">
         <v>14</v>
       </c>
       <c r="E202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
         <v>13</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
         <v>11</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
         <v>11</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" t="n">
         <v>12</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>12</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" t="n">
         <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
         <v>11</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
         <v>13</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61" t="n">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" t="n">
         <v>12</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
         <v>16</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D73" t="n">
         <v>9</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" t="n">
         <v>11</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
         <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
         <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
       </c>
       <c r="E85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D87" t="n">
         <v>13</v>
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D89" t="n">
         <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
         <v>13</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
         <v>15</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" t="n">
         <v>12</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E98" t="n">
         <v>14</v>
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="n">
         <v>11</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100" t="n">
         <v>14</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D101" t="n">
         <v>9</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D104" t="n">
         <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D105" t="n">
         <v>13</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D106" t="n">
         <v>8</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
+        <v>16</v>
+      </c>
+      <c r="E107" t="n">
         <v>15</v>
-      </c>
-      <c r="E107" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" t="n">
         <v>13</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" t="n">
         <v>13</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="n">
         <v>14</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D113" t="n">
         <v>11</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="n">
         <v>13</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" t="n">
         <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D118" t="n">
         <v>15</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" t="n">
         <v>15</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D122" t="n">
         <v>12</v>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125" t="n">
         <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D126" t="n">
         <v>12</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D127" t="n">
         <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D130" t="n">
         <v>8</v>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D132" t="n">
         <v>13</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D134" t="n">
         <v>12</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D135" t="n">
         <v>12</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D137" t="n">
         <v>16</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D138" t="n">
         <v>10</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="n">
         <v>18</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D141" t="n">
         <v>12</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
         <v>14</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D144" t="n">
         <v>12</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E145" t="n">
         <v>12</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
         <v>11</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D147" t="n">
         <v>10</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D148" t="n">
         <v>17</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D149" t="n">
         <v>11</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D150" t="n">
         <v>9</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D151" t="n">
         <v>13</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="n">
         <v>10</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -3664,10 +3664,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="n">
         <v>12</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D156" t="n">
         <v>12</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D157" t="n">
         <v>11</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" t="n">
         <v>13</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D159" t="n">
         <v>9</v>
       </c>
       <c r="E159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" t="n">
         <v>15</v>
       </c>
       <c r="E160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D162" t="n">
         <v>11</v>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="n">
         <v>11</v>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D164" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164" t="n">
         <v>11</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D165" t="n">
         <v>10</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D168" t="n">
         <v>14</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D169" t="n">
         <v>11</v>
       </c>
       <c r="E169" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D170" t="n">
         <v>10</v>
       </c>
       <c r="E170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D171" t="n">
         <v>14</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D172" t="n">
         <v>13</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173" t="n">
         <v>11</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D176" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D177" t="n">
         <v>16</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D178" t="n">
         <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D179" t="n">
         <v>14</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D180" t="n">
         <v>13</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D181" t="n">
         <v>13</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D182" t="n">
         <v>12</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D183" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E183" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D184" t="n">
         <v>12</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
       </c>
       <c r="E185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D191" t="n">
         <v>8</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D192" t="n">
         <v>12</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D193" t="n">
         <v>15</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D195" t="n">
         <v>14</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D196" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D197" t="n">
         <v>16</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D198" t="n">
+        <v>16</v>
+      </c>
+      <c r="E198" t="n">
         <v>15</v>
-      </c>
-      <c r="E198" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D199" t="n">
         <v>12</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" t="n">
         <v>14</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D202" t="n">
         <v>14</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>17</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
         <v>16</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
         <v>12</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
         <v>12</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
         <v>12</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
         <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
         <v>11</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
         <v>11</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
+        <v>11</v>
+      </c>
+      <c r="E53" t="n">
         <v>10</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
         <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" t="n">
         <v>12</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
         <v>13</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
         <v>14</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
         <v>12</v>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
         <v>14</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" t="n">
         <v>14</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
         <v>15</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
         <v>13</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" t="n">
         <v>18</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" t="n">
         <v>14</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
         <v>11</v>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
         <v>15</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
         <v>13</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="n">
         <v>15</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95" t="n">
         <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D96" t="n">
         <v>15</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
         <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" t="n">
         <v>14</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" t="n">
         <v>13</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D103" t="n">
         <v>17</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="n">
         <v>8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D110" t="n">
         <v>11</v>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D111" t="n">
         <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D114" t="n">
         <v>13</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
         <v>15</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
         <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" t="n">
         <v>12</v>
       </c>
       <c r="E122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" t="n">
         <v>15</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D129" t="n">
         <v>13</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130" t="n">
         <v>11</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" t="n">
         <v>12</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143" t="n">
         <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D145" t="n">
         <v>14</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D146" t="n">
         <v>12</v>
       </c>
       <c r="E146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D149" t="n">
         <v>11</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D150" t="n">
         <v>9</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D151" t="n">
         <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D152" t="n">
         <v>10</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D153" t="n">
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D154" t="n">
         <v>11</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="n">
         <v>12</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E160" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D161" t="n">
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D163" t="n">
         <v>11</v>
       </c>
       <c r="E163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D164" t="n">
         <v>16</v>
       </c>
       <c r="E164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D165" t="n">
         <v>10</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D167" t="n">
         <v>11</v>
       </c>
       <c r="E167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D170" t="n">
+        <v>11</v>
+      </c>
+      <c r="E170" t="n">
         <v>10</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D171" t="n">
         <v>14</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D177" t="n">
         <v>16</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E178" t="n">
         <v>11</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E180" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D181" t="n">
         <v>13</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D183" t="n">
         <v>17</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D184" t="n">
         <v>12</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D188" t="n">
         <v>9</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D189" t="n">
         <v>9</v>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D190" t="n">
+        <v>11</v>
+      </c>
+      <c r="E190" t="n">
         <v>10</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="191">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D191" t="n">
         <v>8</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E192" t="n">
         <v>15</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D193" t="n">
+        <v>16</v>
+      </c>
+      <c r="E193" t="n">
         <v>15</v>
-      </c>
-      <c r="E193" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D195" t="n">
         <v>14</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E196" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E197" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D198" t="n">
+        <v>17</v>
+      </c>
+      <c r="E198" t="n">
         <v>16</v>
-      </c>
-      <c r="E198" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D199" t="n">
         <v>12</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D200" t="n">
         <v>14</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E202" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D205" t="n">
         <v>13</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>11</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>14</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
         <v>12</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" t="n">
         <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
         <v>18</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
         <v>11</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
         <v>12</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>13</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="n">
         <v>12</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
         <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
         <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
         <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" t="n">
         <v>11</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
         <v>9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="n">
         <v>14</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" t="n">
         <v>14</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" t="n">
         <v>13</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85" t="n">
         <v>18</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" t="n">
         <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
         <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D100" t="n">
         <v>14</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="n">
         <v>13</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D103" t="n">
         <v>17</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D105" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D106" t="n">
         <v>9</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D108" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" t="n">
         <v>15</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D113" t="n">
         <v>12</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D114" t="n">
         <v>13</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D115" t="n">
         <v>14</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D117" t="n">
         <v>11</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D118" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D124" t="n">
         <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E127" t="n">
         <v>15</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D128" t="n">
         <v>11</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D129" t="n">
         <v>13</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="n">
         <v>11</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132" t="n">
         <v>14</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D137" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D145" t="n">
         <v>14</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D153" t="n">
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E156" t="n">
         <v>12</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D158" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
         <v>14</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D164" t="n">
         <v>16</v>
       </c>
       <c r="E164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D166" t="n">
         <v>11</v>
       </c>
       <c r="E166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D168" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D169" t="n">
         <v>12</v>
       </c>
       <c r="E169" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D170" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E170" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D172" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E172" t="n">
         <v>12</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D175" t="n">
         <v>12</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D176" t="n">
         <v>17</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D177" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E177" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D178" t="n">
         <v>15</v>
       </c>
       <c r="E178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D179" t="n">
         <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D180" t="n">
         <v>14</v>
       </c>
       <c r="E180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D182" t="n">
         <v>13</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D183" t="n">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D184" t="n">
         <v>12</v>
       </c>
       <c r="E184" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D186" t="n">
+        <v>11</v>
+      </c>
+      <c r="E186" t="n">
         <v>10</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D187" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D188" t="n">
         <v>9</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D189" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D190" t="n">
         <v>11</v>
       </c>
       <c r="E190" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D191" t="n">
         <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D192" t="n">
         <v>13</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D195" t="n">
         <v>14</v>
       </c>
       <c r="E195" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D196" t="n">
         <v>18</v>
       </c>
       <c r="E196" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D197" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D198" t="n">
+        <v>18</v>
+      </c>
+      <c r="E198" t="n">
         <v>17</v>
-      </c>
-      <c r="E198" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D199" t="n">
         <v>12</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D200" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D202" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E202" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D205" t="n">
         <v>13</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>13</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>16</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
         <v>16</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>14</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
         <v>11</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>11</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>11</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
         <v>14</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
         <v>12</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>12</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
         <v>11</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" t="n">
         <v>11</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
         <v>15</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="n">
         <v>14</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>14</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
         <v>16</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
         <v>14</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>16</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
         <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
         <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" t="n">
         <v>14</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79" t="n">
         <v>14</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
         <v>14</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83" t="n">
         <v>15</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n">
         <v>17</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
         <v>18</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
         <v>15</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
         <v>16</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
         <v>13</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E100" t="n">
         <v>15</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101" t="n">
         <v>11</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E102" t="n">
         <v>18</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D104" t="n">
         <v>13</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E105" t="n">
         <v>18</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" t="n">
         <v>9</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D109" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E109" t="n">
         <v>15</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D110" t="n">
         <v>12</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
         <v>15</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E113" t="n">
         <v>11</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" t="n">
         <v>14</v>
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D117" t="n">
         <v>11</v>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118" t="n">
         <v>17</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D120" t="n">
         <v>22</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" t="n">
         <v>13</v>
       </c>
       <c r="E122" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D125" t="n">
         <v>14</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D126" t="n">
         <v>14</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" t="n">
         <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D129" t="n">
         <v>13</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D130" t="n">
         <v>10</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D132" t="n">
         <v>14</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
         <v>14</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D135" t="n">
         <v>13</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D136" t="n">
         <v>15</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D139" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D141" t="n">
         <v>14</v>
       </c>
       <c r="E141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142" t="n">
         <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143" t="n">
         <v>10</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E144" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D146" t="n">
         <v>13</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D148" t="n">
         <v>19</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D149" t="n">
         <v>12</v>
       </c>
       <c r="E149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D150" t="n">
         <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D151" t="n">
         <v>14</v>
       </c>
       <c r="E151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D152" t="n">
         <v>11</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D154" t="n">
         <v>12</v>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D155" t="n">
         <v>9</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D156" t="n">
         <v>14</v>
       </c>
       <c r="E156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D158" t="n">
         <v>15</v>
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D160" t="n">
         <v>17</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161" t="n">
         <v>8</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D163" t="n">
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D164" t="n">
         <v>16</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D166" t="n">
+        <v>12</v>
+      </c>
+      <c r="E166" t="n">
         <v>11</v>
-      </c>
-      <c r="E166" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D167" t="n">
         <v>12</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D168" t="n">
         <v>16</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D169" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E169" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D170" t="n">
         <v>12</v>
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D171" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D172" t="n">
         <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D173" t="n">
         <v>13</v>
       </c>
       <c r="E173" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D175" t="n">
         <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D176" t="n">
         <v>17</v>
       </c>
       <c r="E176" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177" t="n">
         <v>17</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D178" t="n">
         <v>15</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E179" t="n">
         <v>12</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D180" t="n">
         <v>14</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D181" t="n">
         <v>14</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D182" t="n">
         <v>13</v>
       </c>
       <c r="E182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D183" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E183" t="n">
         <v>18</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D184" t="n">
         <v>12</v>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D187" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E187" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D189" t="n">
         <v>10</v>
       </c>
       <c r="E189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D190" t="n">
         <v>11</v>
       </c>
       <c r="E190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D192" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E192" t="n">
         <v>15</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D193" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
       </c>
       <c r="E194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D195" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
         <v>15</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D196" t="n">
         <v>18</v>
       </c>
       <c r="E196" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D197" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D198" t="n">
+        <v>19</v>
+      </c>
+      <c r="E198" t="n">
         <v>18</v>
-      </c>
-      <c r="E198" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D199" t="n">
         <v>12</v>
       </c>
       <c r="E199" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D200" t="n">
         <v>15</v>
       </c>
       <c r="E200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D201" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D202" t="n">
         <v>16</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D204" t="n">
         <v>12</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D205" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>14</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
         <v>15</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>14</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
         <v>15</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" t="n">
         <v>14</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>13</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>11</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="n">
         <v>11</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
         <v>16</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
         <v>12</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>14</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>16</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
         <v>14</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
         <v>15</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
         <v>17</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
         <v>15</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
         <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
         <v>15</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
         <v>13</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
         <v>11</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
         <v>17</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>14</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
         <v>16</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
         <v>13</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" t="n">
         <v>15</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" t="n">
         <v>11</v>
       </c>
       <c r="E101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" t="n">
         <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" t="n">
         <v>18</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="n">
         <v>13</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" t="n">
         <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" t="n">
         <v>9</v>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
         <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" t="n">
         <v>12</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
         <v>11</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
         <v>14</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" t="n">
         <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" t="n">
         <v>17</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E121" t="n">
         <v>14</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" t="n">
         <v>15</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" t="n">
         <v>13</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="n">
         <v>11</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" t="n">
         <v>15</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137" t="n">
         <v>14</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142" t="n">
         <v>11</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" t="n">
         <v>15</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" t="n">
         <v>13</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" t="n">
         <v>13</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" t="n">
         <v>19</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E149" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="n">
         <v>14</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" t="n">
         <v>11</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" t="n">
         <v>13</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" t="n">
         <v>12</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="n">
         <v>11</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E161" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" t="n">
         <v>16</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" t="n">
+        <v>13</v>
+      </c>
+      <c r="E166" t="n">
         <v>12</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" t="n">
         <v>12</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E168" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E169" t="n">
         <v>15</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" t="n">
+        <v>13</v>
+      </c>
+      <c r="E170" t="n">
         <v>12</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E172" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E175" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E176" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" t="n">
         <v>17</v>
       </c>
       <c r="E177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" t="n">
         <v>15</v>
       </c>
       <c r="E178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" t="n">
         <v>14</v>
       </c>
       <c r="E180" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" t="n">
         <v>14</v>
       </c>
       <c r="E181" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" t="n">
         <v>13</v>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E183" t="n">
         <v>18</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E184" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" t="n">
         <v>13</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" t="n">
         <v>10</v>
       </c>
       <c r="E188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" t="n">
         <v>10</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" t="n">
         <v>11</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" t="n">
         <v>9</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" t="n">
         <v>14</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" t="n">
         <v>12</v>
       </c>
       <c r="E194" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E195" t="n">
         <v>15</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" t="n">
         <v>18</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" t="n">
         <v>19</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" t="n">
         <v>14</v>
       </c>
       <c r="E201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" t="n">
         <v>16</v>
       </c>
       <c r="E202" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" t="n">
         <v>13</v>
       </c>
       <c r="E203" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" t="n">
         <v>12</v>
       </c>
       <c r="E204" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>13</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>12</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>14</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>18</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>13</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
         <v>14</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
         <v>15</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>14</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>13</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="n">
         <v>19</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
         <v>12</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
         <v>17</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
         <v>15</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
         <v>15</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
         <v>16</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
         <v>16</v>
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" t="n">
         <v>12</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
         <v>14</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n">
         <v>18</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
         <v>15</v>
       </c>
       <c r="E100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
         <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="n">
         <v>16</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" t="n">
         <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="n">
         <v>12</v>
       </c>
       <c r="E110" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E111" t="n">
         <v>11</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" t="n">
         <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118" t="n">
         <v>11</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
         <v>14</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E120" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E121" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" t="n">
         <v>15</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
         <v>11</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" t="n">
         <v>15</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" t="n">
         <v>15</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D136" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E137" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D139" t="n">
         <v>21</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141" t="n">
         <v>15</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" t="n">
         <v>16</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D146" t="n">
         <v>13</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D147" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" t="n">
         <v>19</v>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E149" t="n">
         <v>15</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E150" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151" t="n">
         <v>15</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" t="n">
         <v>11</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" t="n">
         <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" t="n">
         <v>12</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="n">
         <v>11</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E157" t="n">
         <v>17</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" t="n">
         <v>13</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" t="n">
         <v>18</v>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="n">
         <v>15</v>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E162" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" t="n">
         <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" t="n">
         <v>16</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E167" t="n">
         <v>12</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" t="n">
         <v>17</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D169" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E169" t="n">
         <v>15</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E170" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D172" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E172" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D173" t="n">
         <v>14</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D177" t="n">
         <v>17</v>
       </c>
       <c r="E177" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D178" t="n">
         <v>15</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D179" t="n">
         <v>17</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D180" t="n">
         <v>14</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D181" t="n">
         <v>14</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D182" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D183" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D184" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D185" t="n">
         <v>13</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="n">
         <v>11</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D189" t="n">
         <v>10</v>
       </c>
       <c r="E189" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E190" t="n">
         <v>12</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D192" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E192" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E194" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D195" t="n">
         <v>16</v>
       </c>
       <c r="E195" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D196" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" t="n">
         <v>15</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E198" t="n">
         <v>18</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D199" t="n">
         <v>13</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D200" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D201" t="n">
         <v>14</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D202" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D203" t="n">
         <v>13</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" t="n">
         <v>12</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D205" t="n">
         <v>15</v>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
         <v>18</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>13</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
         <v>14</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>14</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>18</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
         <v>15</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
         <v>14</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>17</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
         <v>14</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>11</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80" t="n">
         <v>14</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>18</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
         <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>12</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="n">
         <v>16</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
         <v>15</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>14</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>15</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
         <v>12</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
         <v>14</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
         <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E104" t="n">
         <v>12</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
         <v>16</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>16</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
         <v>16</v>
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
         <v>12</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
         <v>13</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
         <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" t="n">
         <v>13</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" t="n">
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" t="n">
         <v>14</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E120" t="n">
         <v>18</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D128" t="n">
         <v>13</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D129" t="n">
         <v>14</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D131" t="n">
         <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" t="n">
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D133" t="n">
         <v>13</v>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E134" t="n">
         <v>15</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D136" t="n">
         <v>17</v>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E137" t="n">
         <v>15</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D139" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D141" t="n">
         <v>15</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D142" t="n">
         <v>14</v>
       </c>
       <c r="E142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D143" t="n">
         <v>12</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D144" t="n">
         <v>16</v>
       </c>
       <c r="E144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D145" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D146" t="n">
         <v>13</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E147" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D148" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D149" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D151" t="n">
         <v>16</v>
       </c>
       <c r="E151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D152" t="n">
         <v>11</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D153" t="n">
         <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D157" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E157" t="n">
         <v>17</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D159" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D160" t="n">
         <v>18</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D162" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E162" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D163" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D165" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E165" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D166" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E167" t="n">
         <v>12</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D168" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D169" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E169" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D170" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D171" t="n">
         <v>18</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D172" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E172" t="n">
         <v>15</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D174" t="n">
         <v>13</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D175" t="n">
         <v>14</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D176" t="n">
         <v>19</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D177" t="n">
         <v>17</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D178" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D179" t="n">
         <v>17</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D181" t="n">
         <v>14</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D182" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E182" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D183" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D185" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D186" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D187" t="n">
+        <v>18</v>
+      </c>
+      <c r="E187" t="n">
         <v>17</v>
-      </c>
-      <c r="E187" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D188" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E188" t="n">
         <v>11</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="n">
         <v>15</v>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
         <v>12</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D192" t="n">
         <v>15</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D193" t="n">
         <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D194" t="n">
         <v>13</v>
       </c>
       <c r="E194" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D196" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E196" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D198" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E198" t="n">
         <v>18</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D199" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D200" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D201" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D202" t="n">
         <v>17</v>
       </c>
       <c r="E202" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D203" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E203" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E204" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D205" t="n">
         <v>15</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>18</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>13</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" t="n">
         <v>14</v>
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>17</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
         <v>17</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
         <v>14</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" t="n">
         <v>18</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>13</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>18</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>16</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
         <v>17</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
         <v>17</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="n">
         <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
         <v>19</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
         <v>14</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
         <v>19</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E105" t="n">
         <v>19</v>
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D107" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E110" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D112" t="n">
         <v>13</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" t="n">
         <v>14</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D116" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" t="n">
         <v>20</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" t="n">
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E119" t="n">
         <v>14</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D120" t="n">
         <v>25</v>
       </c>
       <c r="E120" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D123" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D124" t="n">
         <v>12</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D129" t="n">
         <v>14</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D131" t="n">
         <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D132" t="n">
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D133" t="n">
         <v>13</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D134" t="n">
         <v>17</v>
       </c>
       <c r="E134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D136" t="n">
         <v>17</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D137" t="n">
         <v>22</v>
       </c>
       <c r="E137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D139" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E139" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D141" t="n">
         <v>15</v>
       </c>
       <c r="E141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D142" t="n">
         <v>14</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D144" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E144" t="n">
         <v>19</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D145" t="n">
         <v>17</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E146" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D148" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E148" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E151" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D154" t="n">
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E155" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D157" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E157" t="n">
         <v>17</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D161" t="n">
         <v>11</v>
       </c>
       <c r="E161" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D162" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E162" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D163" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E163" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D166" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E166" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D167" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D169" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E169" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D172" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E172" t="n">
         <v>15</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D174" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D175" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E176" t="n">
         <v>17</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D177" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D178" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D179" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D180" t="n">
         <v>15</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D181" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E181" t="n">
         <v>15</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D182" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D183" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E184" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D185" t="n">
         <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D186" t="n">
         <v>12</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D187" t="n">
         <v>18</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D188" t="n">
+        <v>13</v>
+      </c>
+      <c r="E188" t="n">
         <v>12</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E189" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D190" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E190" t="n">
         <v>12</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D192" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E192" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E193" t="n">
         <v>17</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D194" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E194" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D195" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E195" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D196" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E196" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E198" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D199" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E199" t="n">
         <v>11</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D200" t="n">
         <v>18</v>
       </c>
       <c r="E200" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D201" t="n">
         <v>15</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D202" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E202" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D203" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E203" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D204" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D205" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>16</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>16</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>16</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>19</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
         <v>17</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>16</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>21</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>19</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>18</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>23</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
         <v>21</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>13</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>17</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>17</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>17</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
         <v>17</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
         <v>15</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
         <v>15</v>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
         <v>21</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
         <v>11</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
         <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
+        <v>12</v>
+      </c>
+      <c r="E73" t="n">
         <v>11</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
         <v>14</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" t="n">
         <v>18</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>15</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>19</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>17</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" t="n">
         <v>16</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" t="n">
         <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>19</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>16</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
         <v>14</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
         <v>16</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>13</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>16</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="n">
         <v>17</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
+        <v>12</v>
+      </c>
+      <c r="E106" t="n">
         <v>11</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" t="n">
         <v>17</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>13</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" t="n">
         <v>13</v>
       </c>
       <c r="E112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E113" t="n">
         <v>14</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
         <v>17</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" t="n">
         <v>17</v>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" t="n">
         <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" t="n">
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" t="n">
         <v>21</v>
       </c>
       <c r="E119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" t="n">
         <v>18</v>
       </c>
       <c r="E121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E122" t="n">
         <v>17</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" t="n">
         <v>15</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" t="n">
         <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127" t="n">
         <v>17</v>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" t="n">
         <v>14</v>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E130" t="n">
         <v>14</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" t="n">
         <v>20</v>
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" t="n">
         <v>17</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" t="n">
         <v>17</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" t="n">
         <v>17</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E137" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D141" t="n">
         <v>15</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" t="n">
         <v>17</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" t="n">
         <v>14</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E147" t="n">
         <v>15</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D148" t="n">
         <v>21</v>
       </c>
       <c r="E148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" t="n">
         <v>16</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154" t="n">
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155" t="n">
         <v>13</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" t="n">
         <v>18</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D160" t="n">
         <v>19</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E161" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D162" t="n">
+        <v>19</v>
+      </c>
+      <c r="E162" t="n">
         <v>18</v>
-      </c>
-      <c r="E162" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="163">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163" t="n">
         <v>15</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164" t="n">
         <v>18</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D166" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E166" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E167" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E169" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D170" t="n">
         <v>16</v>
       </c>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D171" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" t="n">
         <v>16</v>
       </c>
       <c r="E173" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D174" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E174" t="n">
         <v>18</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D175" t="n">
         <v>15</v>
       </c>
       <c r="E175" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D176" t="n">
         <v>20</v>
       </c>
       <c r="E176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D177" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E177" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D178" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E178" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D179" t="n">
         <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D180" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E180" t="n">
         <v>19</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D181" t="n">
         <v>15</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D182" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E182" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D183" t="n">
+        <v>20</v>
+      </c>
+      <c r="E183" t="n">
         <v>19</v>
-      </c>
-      <c r="E183" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D184" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D185" t="n">
         <v>14</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E186" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D187" t="n">
         <v>18</v>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D188" t="n">
+        <v>14</v>
+      </c>
+      <c r="E188" t="n">
         <v>13</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D189" t="n">
         <v>12</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D190" t="n">
         <v>14</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D192" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E192" t="n">
         <v>17</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D193" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E193" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D194" t="n">
         <v>14</v>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D195" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E195" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D196" t="n">
         <v>21</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D198" t="n">
         <v>22</v>
       </c>
       <c r="E198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D199" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E199" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D202" t="n">
         <v>18</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D203" t="n">
         <v>15</v>
       </c>
       <c r="E203" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D204" t="n">
         <v>14</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D205" t="n">
         <v>16</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
         <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>16</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>18</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>21</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>19</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>23</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>16</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
         <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>16</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
         <v>13</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
         <v>15</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>16</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>19</v>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
         <v>15</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>13</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
         <v>14</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
+        <v>13</v>
+      </c>
+      <c r="E73" t="n">
         <v>12</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
         <v>15</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
         <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
         <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>14</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" t="n">
         <v>17</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
         <v>17</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
         <v>18</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" t="n">
         <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>17</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" t="n">
         <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" t="n">
         <v>17</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
         <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>20</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
         <v>16</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
         <v>14</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
         <v>13</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E102" t="n">
         <v>22</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>20</v>
       </c>
       <c r="E103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
         <v>11</v>
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
         <v>19</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E109" t="n">
         <v>18</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
         <v>18</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112" t="n">
         <v>18</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113" t="n">
         <v>14</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="n">
         <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" t="n">
         <v>14</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" t="n">
         <v>17</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E124" t="n">
         <v>20</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" t="n">
         <v>17</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D128" t="n">
         <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D129" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E131" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D134" t="n">
         <v>17</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
         <v>17</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136" t="n">
         <v>17</v>
       </c>
       <c r="E136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D137" t="n">
         <v>23</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D141" t="n">
         <v>15</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D142" t="n">
         <v>15</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D145" t="n">
         <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D146" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147" t="n">
         <v>15</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D149" t="n">
         <v>16</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D151" t="n">
         <v>18</v>
       </c>
       <c r="E151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D152" t="n">
         <v>13</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D154" t="n">
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D155" t="n">
         <v>13</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D157" t="n">
+        <v>19</v>
+      </c>
+      <c r="E157" t="n">
         <v>18</v>
-      </c>
-      <c r="E157" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E160" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D162" t="n">
         <v>19</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D163" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D164" t="n">
         <v>18</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
       </c>
       <c r="E165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D166" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D167" t="n">
         <v>16</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D168" t="n">
         <v>20</v>
       </c>
       <c r="E168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D169" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E169" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E170" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E171" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D172" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E173" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D174" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E174" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D175" t="n">
         <v>15</v>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E176" t="n">
         <v>18</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D177" t="n">
         <v>19</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D178" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E178" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D179" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D181" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E181" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D182" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E182" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D183" t="n">
         <v>20</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E185" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D186" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E186" t="n">
         <v>14</v>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D187" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E187" t="n">
         <v>17</v>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D188" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D189" t="n">
         <v>12</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D190" t="n">
         <v>14</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D192" t="n">
         <v>17</v>
       </c>
       <c r="E192" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D193" t="n">
         <v>22</v>
       </c>
       <c r="E193" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D195" t="n">
         <v>19</v>
       </c>
       <c r="E195" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D196" t="n">
         <v>21</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D197" t="n">
         <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D198" t="n">
         <v>22</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D199" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
         <v>12</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
       </c>
       <c r="E200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D201" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E202" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E203" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E204" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D205" t="n">
         <v>16</v>
       </c>
       <c r="E205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>19</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
         <v>14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>19</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>17</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>18</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>19</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>19</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" t="n">
         <v>14</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>20</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>16</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>22</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>14</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>13</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>18</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>18</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>18</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>18</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" t="n">
         <v>17</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>19</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>12</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>22</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
+        <v>14</v>
+      </c>
+      <c r="E73" t="n">
         <v>13</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>12</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
         <v>14</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" t="n">
         <v>19</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
         <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
         <v>15</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" t="n">
         <v>17</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
         <v>18</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" t="n">
         <v>17</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E89" t="n">
         <v>20</v>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" t="n">
         <v>20</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
         <v>21</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
         <v>19</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E96" t="n">
         <v>17</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
         <v>16</v>
       </c>
       <c r="E97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" t="n">
         <v>17</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>13</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E102" t="n">
         <v>22</v>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
         <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
         <v>19</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
         <v>18</v>
       </c>
       <c r="E109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" t="n">
         <v>14</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E111" t="n">
         <v>15</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
         <v>18</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
         <v>17</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
         <v>18</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" t="n">
         <v>18</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116" t="n">
         <v>21</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" t="n">
         <v>19</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" t="n">
         <v>22</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" t="n">
         <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121" t="n">
         <v>17</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" t="n">
         <v>20</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E126" t="n">
         <v>17</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127" t="n">
         <v>18</v>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128" t="n">
         <v>11</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" t="n">
         <v>15</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E130" t="n">
         <v>15</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E131" t="n">
         <v>14</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E137" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142" t="n">
         <v>14</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E143" t="n">
         <v>18</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" t="n">
         <v>15</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" t="n">
         <v>16</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151" t="n">
         <v>18</v>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" t="n">
         <v>13</v>
       </c>
       <c r="E152" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" t="n">
         <v>16</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154" t="n">
         <v>13</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E155" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157" t="n">
         <v>19</v>
       </c>
       <c r="E157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" t="n">
         <v>13</v>
       </c>
       <c r="E161" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162" t="n">
+        <v>20</v>
+      </c>
+      <c r="E162" t="n">
         <v>19</v>
-      </c>
-      <c r="E162" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E163" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164">
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E164" t="n">
         <v>15</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E167" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" t="n">
         <v>20</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" t="n">
         <v>19</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E171" t="n">
         <v>15</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E173" t="n">
         <v>19</v>
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" t="n">
         <v>16</v>
       </c>
       <c r="E174" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E175" t="n">
         <v>17</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E176" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" t="n">
         <v>19</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E178" t="n">
         <v>15</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179" t="n">
         <v>19</v>
       </c>
       <c r="E179" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" t="n">
         <v>18</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D183" t="n">
         <v>20</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184" t="n">
         <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186">
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D186" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E186" t="n">
         <v>14</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D187" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E187" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D189" t="n">
         <v>12</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D190" t="n">
         <v>14</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D192" t="n">
         <v>17</v>
       </c>
       <c r="E192" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D193" t="n">
         <v>22</v>
       </c>
       <c r="E193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D195" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E195" t="n">
         <v>20</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D196" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E196" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E197" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D198" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E198" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D199" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E199" t="n">
         <v>12</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
       </c>
       <c r="E200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D201" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E202" t="n">
         <v>22</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D203" t="n">
         <v>16</v>
       </c>
       <c r="E203" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D204" t="n">
         <v>15</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D205" t="n">
         <v>16</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>21</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>19</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
         <v>14</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>17</v>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>21</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>18</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>18</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>17</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
         <v>21</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>16</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>19</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
         <v>16</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>19</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>24</v>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
         <v>18</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>20</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" t="n">
         <v>14</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>22</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
         <v>16</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>13</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
         <v>18</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>18</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>19</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62" t="n">
         <v>17</v>
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>16</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>18</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66" t="n">
         <v>23</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>14</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>22</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72" t="n">
         <v>17</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>14</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
         <v>19</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
         <v>17</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
         <v>15</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
         <v>19</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>17</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
         <v>18</v>
       </c>
       <c r="E87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>17</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90" t="n">
         <v>17</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
         <v>17</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
         <v>19</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E96" t="n">
         <v>17</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
         <v>18</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99" t="n">
         <v>15</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
         <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" t="n">
         <v>21</v>
       </c>
       <c r="E103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>19</v>
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" t="n">
         <v>12</v>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" t="n">
+        <v>21</v>
+      </c>
+      <c r="E107" t="n">
         <v>20</v>
-      </c>
-      <c r="E107" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
         <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109" t="n">
         <v>19</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" t="n">
         <v>14</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D111" t="n">
         <v>22</v>
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
         <v>17</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" t="n">
         <v>14</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D116" t="n">
         <v>17</v>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
         <v>19</v>
       </c>
       <c r="E118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E119" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D120" t="n">
         <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D121" t="n">
         <v>20</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E123" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="n">
         <v>20</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D126" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E126" t="n">
         <v>17</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127" t="n">
         <v>18</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="n">
         <v>15</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E130" t="n">
         <v>15</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="n">
         <v>16</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E134" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>18</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D137" t="n">
         <v>24</v>
       </c>
       <c r="E137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" t="n">
         <v>26</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" t="n">
         <v>16</v>
       </c>
       <c r="E142" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" t="n">
         <v>19</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D146" t="n">
         <v>16</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D147" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D149" t="n">
         <v>16</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" t="n">
         <v>15</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D152" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D155" t="n">
         <v>14</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D159" t="n">
         <v>15</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E160" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D161" t="n">
         <v>13</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" t="n">
         <v>20</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" t="n">
         <v>17</v>
       </c>
       <c r="E163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D164" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D166" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E166" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D167" t="n">
         <v>17</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E171" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D172" t="n">
         <v>22</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E174" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D175" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E175" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D177" t="n">
         <v>19</v>
       </c>
       <c r="E177" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D178" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D179" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E179" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" t="n">
         <v>18</v>
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D181" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D182" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E182" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D183" t="n">
         <v>20</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D184" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E184" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186" t="n">
         <v>15</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E187" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D188" t="n">
         <v>16</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D189" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E189" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D190" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D192" t="n">
         <v>17</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D193" t="n">
         <v>22</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E194" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" t="n">
         <v>18</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D197" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E197" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D198" t="n">
         <v>23</v>
       </c>
       <c r="E198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
       </c>
       <c r="E200" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D201" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E201" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D202" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E202" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E203" t="n">
         <v>21</v>
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D204" t="n">
         <v>15</v>
       </c>
       <c r="E204" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D205" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E205" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
         <v>19</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="n">
         <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
         <v>18</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
         <v>18</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
         <v>20</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>24</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
         <v>18</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
+        <v>21</v>
+      </c>
+      <c r="E46" t="n">
         <v>20</v>
-      </c>
-      <c r="E46" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
         <v>18</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" t="n">
         <v>19</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
         <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
         <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
         <v>17</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
         <v>22</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" t="n">
         <v>14</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="n">
         <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
         <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
         <v>17</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>20</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E96" t="n">
         <v>17</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
         <v>17</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
         <v>16</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E101" t="n">
         <v>17</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
         <v>19</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
         <v>21</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" t="n">
         <v>19</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
         <v>19</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106" t="n">
         <v>14</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107" t="n">
         <v>21</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
         <v>17</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" t="n">
         <v>19</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" t="n">
         <v>14</v>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111" t="n">
         <v>22</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112" t="n">
         <v>16</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113" t="n">
         <v>14</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" t="n">
         <v>19</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D116" t="n">
         <v>17</v>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D118" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118" t="n">
         <v>15</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D120" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E120" t="n">
         <v>23</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D121" t="n">
         <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
       </c>
       <c r="E124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D125" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D126" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D127" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D129" t="n">
         <v>15</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D130" t="n">
         <v>18</v>
       </c>
       <c r="E130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E132" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D133" t="n">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D134" t="n">
         <v>19</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D136" t="n">
         <v>19</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D137" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
@@ -3349,13 +3349,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D139" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D142" t="n">
         <v>16</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D143" t="n">
         <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D144" t="n">
         <v>20</v>
       </c>
       <c r="E144" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D145" t="n">
         <v>19</v>
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D147" t="n">
         <v>20</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D148" t="n">
         <v>24</v>
       </c>
       <c r="E148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D150" t="n">
         <v>13</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D151" t="n">
         <v>19</v>
       </c>
       <c r="E151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D152" t="n">
         <v>14</v>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D153" t="n">
         <v>17</v>
       </c>
       <c r="E153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D154" t="n">
         <v>14</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D155" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E155" t="n">
         <v>14</v>
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D157" t="n">
         <v>20</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D159" t="n">
         <v>15</v>
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D160" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D161" t="n">
         <v>13</v>
       </c>
       <c r="E161" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D162" t="n">
         <v>20</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D166" t="n">
         <v>20</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D167" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E167" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D168" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D169" t="n">
         <v>20</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D170" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D171" t="n">
         <v>23</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D173" t="n">
         <v>19</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D174" t="n">
         <v>17</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D175" t="n">
         <v>17</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D176" t="n">
         <v>23</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D177" t="n">
         <v>19</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D178" t="n">
         <v>21</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D179" t="n">
         <v>20</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D181" t="n">
         <v>18</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D182" t="n">
         <v>19</v>
       </c>
       <c r="E182" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D183" t="n">
         <v>20</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D184" t="n">
         <v>19</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D185" t="n">
         <v>17</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D186" t="n">
         <v>15</v>
       </c>
       <c r="E186" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D187" t="n">
         <v>21</v>
       </c>
       <c r="E187" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D188" t="n">
         <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D190" t="n">
         <v>15</v>
       </c>
       <c r="E190" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D192" t="n">
         <v>17</v>
       </c>
       <c r="E192" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D193" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E193" t="n">
         <v>20</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D194" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E194" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D195" t="n">
         <v>21</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D196" t="n">
         <v>23</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D197" t="n">
         <v>21</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D198" t="n">
         <v>23</v>
       </c>
       <c r="E198" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D201" t="n">
         <v>19</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D202" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E202" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D203" t="n">
         <v>17</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D204" t="n">
         <v>15</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D205" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E205" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
         <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
         <v>22</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" t="n">
         <v>18</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
         <v>21</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" t="n">
         <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="n">
         <v>23</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
         <v>16</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" t="n">
         <v>18</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="n">
         <v>16</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="n">
         <v>14</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" t="n">
         <v>19</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" t="n">
         <v>17</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" t="n">
         <v>20</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
         <v>20</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" t="n">
         <v>13</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" t="n">
         <v>17</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65" t="n">
         <v>14</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" t="n">
         <v>19</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
         <v>22</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
         <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
         <v>15</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80" t="n">
         <v>17</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
         <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" t="n">
         <v>15</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
         <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
         <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
         <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" t="n">
         <v>18</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
         <v>23</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>17</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D98" t="n">
         <v>17</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
         <v>16</v>
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D107" t="n">
+        <v>22</v>
+      </c>
+      <c r="E107" t="n">
         <v>21</v>
-      </c>
-      <c r="E107" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108" t="n">
         <v>17</v>
       </c>
       <c r="E108" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
         <v>22</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E112" t="n">
         <v>19</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D113" t="n">
         <v>18</v>
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" t="n">
         <v>19</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D115" t="n">
         <v>20</v>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D116" t="n">
         <v>17</v>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
         <v>20</v>
       </c>
       <c r="E118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D119" t="n">
         <v>24</v>
       </c>
       <c r="E119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" t="n">
         <v>28</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D121" t="n">
         <v>20</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
       </c>
       <c r="E122" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D125" t="n">
         <v>21</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D126" t="n">
         <v>23</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E127" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D128" t="n">
         <v>18</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D130" t="n">
         <v>18</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D131" t="n">
         <v>24</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D132" t="n">
         <v>20</v>
       </c>
       <c r="E132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D133" t="n">
         <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D134" t="n">
         <v>19</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="n">
         <v>19</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E137" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E139" t="n">
         <v>21</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="n">
         <v>16</v>
       </c>
       <c r="E142" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E143" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E144" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E148" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D149" t="n">
         <v>17</v>
       </c>
       <c r="E149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E152" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D155" t="n">
+        <v>16</v>
+      </c>
+      <c r="E155" t="n">
         <v>15</v>
-      </c>
-      <c r="E155" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D156" t="n">
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E157" t="n">
         <v>20</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D158" t="n">
         <v>19</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D159" t="n">
         <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D160" t="n">
         <v>23</v>
       </c>
       <c r="E160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E161" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E162" t="n">
         <v>19</v>
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D163" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E163" t="n">
         <v>21</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D164" t="n">
         <v>21</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D165" t="n">
         <v>15</v>
       </c>
       <c r="E165" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D166" t="n">
         <v>20</v>
       </c>
       <c r="E166" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D167" t="n">
         <v>18</v>
       </c>
       <c r="E167" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D168" t="n">
         <v>21</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D169" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E169" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D170" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D171" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E171" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D172" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D173" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E173" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E174" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D175" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E175" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D176" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E176" t="n">
         <v>20</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E177" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D179" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E179" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D181" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E181" t="n">
         <v>17</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D182" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E182" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183">
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E183" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D184" t="n">
         <v>19</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D185" t="n">
         <v>17</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187" t="n">
         <v>21</v>
       </c>
       <c r="E187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D188" t="n">
+        <v>17</v>
+      </c>
+      <c r="E188" t="n">
         <v>16</v>
-      </c>
-      <c r="E188" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D189" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E189" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D190" t="n">
         <v>15</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D191" t="n">
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D192" t="n">
         <v>17</v>
       </c>
       <c r="E192" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D193" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D194" t="n">
         <v>18</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D195" t="n">
         <v>21</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D196" t="n">
         <v>23</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D197" t="n">
         <v>21</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D198" t="n">
         <v>23</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D201" t="n">
         <v>19</v>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D202" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E202" t="n">
         <v>24</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D203" t="n">
         <v>17</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D204" t="n">
         <v>15</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D205" t="n">
         <v>18</v>
       </c>
       <c r="E205" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>17</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
         <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
         <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
         <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
         <v>19</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n">
         <v>19</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
         <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
         <v>18</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>19</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" t="n">
         <v>18</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
         <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
         <v>17</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="n">
         <v>25</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" t="n">
         <v>18</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
         <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" t="n">
         <v>19</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
         <v>23</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" t="n">
         <v>18</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="n">
         <v>14</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53" t="n">
         <v>18</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="n">
         <v>21</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
         <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
         <v>20</v>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
         <v>19</v>
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
         <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E61" t="n">
         <v>19</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
         <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" t="n">
+        <v>23</v>
+      </c>
+      <c r="E69" t="n">
         <v>22</v>
-      </c>
-      <c r="E69" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" t="n">
         <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" t="n">
         <v>18</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
         <v>14</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85" t="n">
         <v>23</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
         <v>18</v>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" t="n">
         <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
         <v>18</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>21</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>23</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D99" t="n">
+        <v>17</v>
+      </c>
+      <c r="E99" t="n">
         <v>16</v>
-      </c>
-      <c r="E99" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E100" t="n">
         <v>19</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>22</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
         <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D107" t="n">
+        <v>23</v>
+      </c>
+      <c r="E107" t="n">
         <v>22</v>
-      </c>
-      <c r="E107" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108" t="n">
         <v>18</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
         <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>22</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112" t="n">
         <v>19</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
         <v>18</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E116" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" t="n">
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E118" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
         <v>24</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120" t="n">
         <v>23</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121" t="n">
         <v>20</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
         <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E126" t="n">
         <v>18</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D128" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D129" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E129" t="n">
         <v>14</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D130" t="n">
         <v>18</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D131" t="n">
         <v>24</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D132" t="n">
         <v>20</v>
       </c>
       <c r="E132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
         <v>19</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E135" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
         <v>19</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D137" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E139" t="n">
         <v>21</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D141" t="n">
         <v>19</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D142" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E142" t="n">
         <v>17</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D144" t="n">
         <v>21</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D145" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E145" t="n">
         <v>18</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D146" t="n">
         <v>18</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D147" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E148" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D150" t="n">
         <v>14</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="n">
         <v>20</v>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D152" t="n">
         <v>15</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153" t="n">
         <v>21</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E154" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="n">
+        <v>17</v>
+      </c>
+      <c r="E155" t="n">
         <v>16</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="156">
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E156" t="n">
         <v>19</v>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E158" t="n">
         <v>12</v>
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="n">
         <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D160" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D161" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E161" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E162" t="n">
         <v>19</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E163" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E165" t="n">
         <v>17</v>
@@ -3916,13 +3916,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D166" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D167" t="n">
         <v>18</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" t="n">
         <v>21</v>
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D170" t="n">
         <v>21</v>
       </c>
       <c r="E170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D171" t="n">
         <v>24</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D172" t="n">
         <v>24</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D173" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E173" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D174" t="n">
         <v>18</v>
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D175" t="n">
         <v>18</v>
       </c>
       <c r="E175" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D176" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D177" t="n">
         <v>20</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E178" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D179" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E179" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E180" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E181" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D182" t="n">
         <v>20</v>
       </c>
       <c r="E182" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D183" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E183" t="n">
         <v>20</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D184" t="n">
         <v>19</v>
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E185" t="n">
         <v>18</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D186" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D187" t="n">
         <v>21</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188" t="n">
         <v>17</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D189" t="n">
         <v>15</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D190" t="n">
         <v>15</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D192" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E192" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D193" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193" t="n">
         <v>21</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D194" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E194" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D195" t="n">
         <v>21</v>
       </c>
       <c r="E195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D196" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E196" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D197" t="n">
         <v>21</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D198" t="n">
         <v>23</v>
       </c>
       <c r="E198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D200" t="n">
         <v>19</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E201" t="n">
         <v>14</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
         <v>23</v>
       </c>
       <c r="E202" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E203" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D204" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E204" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D205" t="n">
         <v>18</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v>23</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
         <v>19</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>25</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
         <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" t="n">
         <v>25</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" t="n">
         <v>21</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n">
         <v>22</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
         <v>15</v>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" t="n">
         <v>21</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
         <v>18</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" t="n">
         <v>17</v>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" t="n">
         <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51" t="n">
         <v>17</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
         <v>19</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="n">
         <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" t="n">
         <v>19</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" t="n">
+        <v>16</v>
+      </c>
+      <c r="E67" t="n">
         <v>15</v>
-      </c>
-      <c r="E67" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D68" t="n">
         <v>19</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
         <v>22</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
         <v>14</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
         <v>17</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D79" t="n">
         <v>21</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
         <v>21</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
         <v>20</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" t="n">
         <v>25</v>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83" t="n">
         <v>21</v>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D85" t="n">
         <v>18</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D86" t="n">
         <v>20</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D90" t="n">
         <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D92" t="n">
         <v>18</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
         <v>23</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
         <v>18</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D99" t="n">
+        <v>18</v>
+      </c>
+      <c r="E99" t="n">
         <v>17</v>
-      </c>
-      <c r="E99" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D100" t="n">
         <v>21</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D102" t="n">
         <v>21</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>22</v>
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D104" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E105" t="n">
         <v>23</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
         <v>16</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D107" t="n">
         <v>23</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D108" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D109" t="n">
         <v>20</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D110" t="n">
         <v>16</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="n">
         <v>22</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D112" t="n">
         <v>18</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D113" t="n">
         <v>18</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D114" t="n">
         <v>20</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="n">
         <v>21</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" t="n">
         <v>22</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D117" t="n">
         <v>18</v>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D118" t="n">
         <v>21</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D119" t="n">
         <v>24</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D120" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E120" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D121" t="n">
         <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D124" t="n">
         <v>13</v>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D125" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D126" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E126" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D127" t="n">
+        <v>23</v>
+      </c>
+      <c r="E127" t="n">
         <v>22</v>
-      </c>
-      <c r="E127" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D128" t="n">
         <v>19</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D129" t="n">
         <v>17</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D131" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D132" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E132" t="n">
         <v>19</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E133" t="n">
         <v>20</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134" t="n">
         <v>19</v>
       </c>
       <c r="E134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D135" t="n">
         <v>21</v>
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D137" t="n">
         <v>27</v>
@@ -3328,13 +3328,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D139" t="n">
         <v>29</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D141" t="n">
         <v>19</v>
       </c>
       <c r="E141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D142" t="n">
         <v>17</v>
       </c>
       <c r="E142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D143" t="n">
         <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E144" t="n">
         <v>24</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D145" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D146" t="n">
         <v>18</v>
       </c>
       <c r="E146" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D147" t="n">
         <v>22</v>
       </c>
       <c r="E147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D148" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E148" t="n">
         <v>21</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D149" t="n">
         <v>18</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D150" t="n">
         <v>14</v>
       </c>
       <c r="E150" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D151" t="n">
         <v>20</v>
       </c>
       <c r="E151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E153" t="n">
         <v>21</v>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D154" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E154" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D155" t="n">
         <v>17</v>
       </c>
       <c r="E155" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D156" t="n">
         <v>17</v>
       </c>
       <c r="E156" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" t="n">
         <v>22</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D159" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D160" t="n">
         <v>24</v>
       </c>
       <c r="E160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161">
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D161" t="n">
         <v>15</v>
       </c>
       <c r="E161" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D162" t="n">
         <v>22</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D163" t="n">
         <v>20</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D164" t="n">
         <v>22</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D165" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
         <v>17</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D166" t="n">
         <v>21</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D167" t="n">
+        <v>19</v>
+      </c>
+      <c r="E167" t="n">
         <v>18</v>
-      </c>
-      <c r="E167" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E168" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D169" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E169" t="n">
         <v>21</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D170" t="n">
         <v>21</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D171" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E171" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D172" t="n">
         <v>24</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D173" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E173" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D174" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E174" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D175" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E175" t="n">
         <v>20</v>
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D176" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E176" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E177" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D178" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E178" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D179" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E179" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D180" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D181" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E181" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D182" t="n">
         <v>20</v>
       </c>
       <c r="E182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D183" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E183" t="n">
         <v>20</v>
@@ -4294,10 +4294,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D184" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E184" t="n">
         <v>24</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D185" t="n">
         <v>18</v>
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D186" t="n">
         <v>17</v>
       </c>
       <c r="E186" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D187" t="n">
         <v>21</v>
       </c>
       <c r="E187" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188">
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D188" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D189" t="n">
         <v>15</v>
       </c>
       <c r="E189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D190" t="n">
         <v>15</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D192" t="n">
         <v>18</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D193" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E193" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D194" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E194" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E195" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196">
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D196" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E196" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D197" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E197" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E198" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D200" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E200" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E201" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D202" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E202" t="n">
         <v>25</v>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D203" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E203" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D204" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E204" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D205" t="n">
         <v>18</v>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>17</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>18</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
         <v>24</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
         <v>22</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
         <v>22</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
         <v>18</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
         <v>19</v>
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
         <v>21</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
         <v>18</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
         <v>21</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
         <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
         <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
         <v>25</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
         <v>18</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
         <v>19</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
         <v>21</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
         <v>22</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
       </c>
       <c r="E57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
         <v>21</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
         <v>19</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
         <v>16</v>
-      </c>
-      <c r="E67" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
         <v>19</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
         <v>22</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
         <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
         <v>21</v>
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
         <v>21</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
         <v>21</v>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
         <v>20</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
         <v>20</v>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
         <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
         <v>25</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85" t="n">
         <v>24</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
         <v>21</v>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
         <v>19</v>
       </c>
       <c r="E88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
         <v>18</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D92" t="n">
         <v>18</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D93" t="n">
         <v>14</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
         <v>23</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D96" t="n">
         <v>23</v>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D97" t="n">
         <v>18</v>
       </c>
       <c r="E97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D98" t="n">
         <v>19</v>
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D99" t="n">
+        <v>19</v>
+      </c>
+      <c r="E99" t="n">
         <v>18</v>
-      </c>
-      <c r="E99" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D101" t="n">
         <v>17</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E104" t="n">
         <v>19</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
         <v>23</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D107" t="n">
         <v>23</v>
       </c>
       <c r="E107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D111" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D112" t="n">
         <v>18</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
         <v>14</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
         <v>20</v>
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E115" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D116" t="n">
         <v>19</v>
       </c>
       <c r="E116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D117" t="n">
         <v>18</v>
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E121" t="n">
         <v>19</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D123" t="n">
         <v>21</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D126" t="n">
         <v>25</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D127" t="n">
+        <v>24</v>
+      </c>
+      <c r="E127" t="n">
         <v>23</v>
-      </c>
-      <c r="E127" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D128" t="n">
         <v>19</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D129" t="n">
         <v>17</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D130" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D131" t="n">
         <v>25</v>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D132" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E132" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D133" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134" t="n">
+        <v>20</v>
+      </c>
+      <c r="E134" t="n">
         <v>19</v>
-      </c>
-      <c r="E134" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" t="n">
         <v>21</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E136" t="n">
         <v>18</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
         <v>20</v>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139" t="n">
         <v>29</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" t="n">
         <v>19</v>
       </c>
       <c r="E141" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E142" t="n">
         <v>18</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D144" t="n">
         <v>22</v>
       </c>
       <c r="E144" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145" t="n">
         <v>22</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146" t="n">
         <v>18</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D147" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E147" t="n">
         <v>18</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D148" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E148" t="n">
         <v>21</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D149" t="n">
         <v>18</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D150" t="n">
         <v>14</v>
       </c>
       <c r="E150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E151" t="n">
         <v>23</v>
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D152" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D153" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E153" t="n">
         <v>21</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D154" t="n">
         <v>17</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D155" t="n">
         <v>17</v>
       </c>
       <c r="E155" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D156" t="n">
         <v>17</v>
       </c>
       <c r="E156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D157" t="n">
         <v>22</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D158" t="n">
         <v>21</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D159" t="n">
         <v>16</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D160" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E160" t="n">
         <v>22</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D161" t="n">
         <v>15</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D162" t="n">
         <v>22</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D163" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D164" t="n">
         <v>22</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D165" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E165" t="n">
         <v>17</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" t="n">
         <v>21</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D167" t="n">
         <v>19</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D168" t="n">
         <v>23</v>
@@ -3979,13 +3979,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D169" t="n">
         <v>23</v>
       </c>
       <c r="E169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D170" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E170" t="n">
         <v>17</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D171" t="n">
         <v>25</v>
       </c>
       <c r="E171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E173" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
@@ -4084,13 +4084,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D174" t="n">
         <v>19</v>
       </c>
       <c r="E174" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D175" t="n">
         <v>19</v>
       </c>
       <c r="E175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D176" t="n">
         <v>26</v>
       </c>
       <c r="E176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D177" t="n">
         <v>21</v>
       </c>
       <c r="E177" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D178" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E178" t="n">
         <v>18</v>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E179" t="n">
         <v>21</v>
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D180" t="n">
         <v>21</v>
       </c>
       <c r="E180" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D181" t="n">
         <v>21</v>
       </c>
       <c r="E181" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D182" t="n">
         <v>20</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D183" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D184" t="n">
         <v>20</v>
       </c>
       <c r="E184" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D185" t="n">
         <v>18</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D186" t="n">
         <v>17</v>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D187" t="n">
         <v>21</v>
       </c>
       <c r="E187" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D188" t="n">
         <v>18</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E189" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D190" t="n">
         <v>15</v>
       </c>
       <c r="E190" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D192" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E192" t="n">
         <v>22</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D193" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E193" t="n">
         <v>22</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D194" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E194" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D195" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E195" t="n">
         <v>23</v>
@@ -4546,13 +4546,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D196" t="n">
         <v>25</v>
       </c>
       <c r="E196" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D197" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D198" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" t="n">
         <v>25</v>
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D200" t="n">
         <v>20</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D201" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E201" t="n">
         <v>15</v>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D202" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E202" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203">
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D203" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E203" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D204" t="n">
         <v>17</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D205" t="n">
         <v>18</v>
       </c>
       <c r="E205" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/static/NSE/Evaluation.xlsx
+++ b/static/NSE/Evaluation.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
         <v>20</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
         <v>26</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
         <v>24</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
         <v>22</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="n">
         <v>19</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
         <v>26</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
         <v>25</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
         <v>23</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" t="n">
         <v>21</v>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
         <v>21</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" t="n">
         <v>27</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
         <v>16</v>
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50" t="n">
         <v>19</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" t="n">
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" t="n">
         <v>16</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" t="n">
         <v>22</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" t="n">
         <v>17</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
         <v>18</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E60" t="n">
         <v>22</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" t="n">
         <v>23</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D62" t="n">
         <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" t="n">
         <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D66" t="n">
         <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D67" t="n">
         <v>17</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D68" t="n">
         <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D72" t="n">
         <v>19</v>
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
         <v>20</v>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" t="n">
         <v>23</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" t="n">
         <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D79" t="n">
         <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D80" t="n">
         <v>21</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D81" t="n">
         <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" t="n">
         <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E83" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D84" t="n">
         <v>25</v>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D90" t="n">
         <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
         <v>21</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
         <v>22</v>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D95" t="n">
         <v>23</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D96" t="n">
         <v>23</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D97" t="n">
         <v>18</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D98" t="n">
         <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D99" t="n">
         <v>19</v>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" t="n">
         <v>22</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D101" t="n">
         <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" t="n">
         <v>22</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D103" t="n">
         <v>23</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E104" t="n">
         <v>19</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
         <v>22</v>
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E106" t="n">
         <v>15</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D107" t="n">
         <v>23</v>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D109" t="n">
         <v>21</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D110" t="n">
         <v>17</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D111" t="n">
         <v>23</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" t="n">
         <v>18</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D113" t="n">
         <v>19</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D114" t="n">
         <v>20</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D115" t="n">
         <v>22</v>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D116" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E116" t="n">
         <v>23</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D117" t="n">
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D118" t="n">
         <v>22</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" t="n">
         <v>25</v>
       </c>
       <c r="E119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" t="n">
         <v>31</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" t="n">
         <v>21</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D122" t="n">
         <v>18</v>
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" t="n">
         <v>21</v>
       </c>
       <c r="E123" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D124" t="n">
         <v>14</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D125" t="n">
         <v>24</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D126" t="n">
      